--- a/DecorateArma/中山進捗コスト表.xlsx
+++ b/DecorateArma/中山進捗コスト表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347024\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347024\Desktop\GitHub\MyGame\DecorateArma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC34200A-BE94-4ED8-BA58-45A1E0CCD009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19251067-7116-46B9-A6A5-DC1CCC5CE145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{06163087-D774-44E3-AC22-B7F35EE22022}"/>
+    <workbookView xWindow="1650" yWindow="-12675" windowWidth="21600" windowHeight="11295" xr2:uid="{06163087-D774-44E3-AC22-B7F35EE22022}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="127">
   <si>
     <t>1コスト：3時間(一日基本2コスト)</t>
     <rPh sb="6" eb="8">
@@ -556,6 +556,13 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <rPh sb="0" eb="2">
+      <t>カンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -980,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5C914B-F6BA-41F6-BE3D-3176FC82B172}">
   <dimension ref="A1:I137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="G137" sqref="G137"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1063,7 +1070,7 @@
         <v>99</v>
       </c>
       <c r="G5">
-        <v>25.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
@@ -1082,7 +1089,7 @@
       </c>
       <c r="G6">
         <f>G4-G5</f>
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
@@ -1113,7 +1120,7 @@
       </c>
       <c r="G8">
         <f>SUM(C:C)</f>
-        <v>17.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -1131,7 +1138,7 @@
       </c>
       <c r="G9">
         <f ca="1">_xlfn.DAYS(TODAY(),G2)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
@@ -1188,11 +1195,11 @@
       </c>
       <c r="H15">
         <f ca="1">_xlfn.DAYS(G15,TODAY())</f>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I15">
         <f ca="1">$G$6/H15</f>
-        <v>2.0677966101694913</v>
+        <v>2.2586206896551726</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
@@ -1207,11 +1214,11 @@
       </c>
       <c r="H16">
         <f ca="1">_xlfn.DAYS(G16,TODAY())</f>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I16">
         <f t="shared" ref="I16:I17" ca="1" si="0">$G$6/H16</f>
-        <v>1.4022988505747127</v>
+        <v>1.5232558139534884</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
@@ -1235,11 +1242,11 @@
       </c>
       <c r="H17">
         <f t="shared" ref="H17" ca="1" si="1">_xlfn.DAYS(G17,TODAY())</f>
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1730769230769231</v>
+        <v>1.2718446601941749</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
@@ -1442,8 +1449,11 @@
       <c r="B38">
         <v>1</v>
       </c>
+      <c r="C38" s="6">
+        <v>0.5</v>
+      </c>
       <c r="D38" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
@@ -2308,6 +2318,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -2542,27 +2572,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EE57519-32A4-4E07-899C-1730DAEB61F8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="db6a9e92-7dff-44c4-88fb-dfdb35aacb58"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="039abfb5-1edc-46dd-b6ee-7f92783bfc48"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
+    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{336D5495-947F-4A21-BF46-4F79737A7D0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2DB8550-DCF7-4849-8EB8-ECAF0AC6EF2A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2579,31 +2616,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{336D5495-947F-4A21-BF46-4F79737A7D0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EE57519-32A4-4E07-899C-1730DAEB61F8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="db6a9e92-7dff-44c4-88fb-dfdb35aacb58"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="039abfb5-1edc-46dd-b6ee-7f92783bfc48"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
-    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/DecorateArma/中山進捗コスト表.xlsx
+++ b/DecorateArma/中山進捗コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347024\Desktop\GitHub\MyGame\DecorateArma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19251067-7116-46B9-A6A5-DC1CCC5CE145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AD97E3-FA1C-4CA1-ABEA-45D917D6903E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="-12675" windowWidth="21600" windowHeight="11295" xr2:uid="{06163087-D774-44E3-AC22-B7F35EE22022}"/>
+    <workbookView xWindow="1455" yWindow="570" windowWidth="22680" windowHeight="12945" xr2:uid="{06163087-D774-44E3-AC22-B7F35EE22022}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="127">
   <si>
     <t>1コスト：3時間(一日基本2コスト)</t>
     <rPh sb="6" eb="8">
@@ -502,16 +502,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>残り日数</t>
-    <rPh sb="0" eb="1">
-      <t>ノコ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニッスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>一日の消費コスト</t>
     <rPh sb="0" eb="2">
       <t>イチニチ</t>
@@ -560,9 +550,28 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>完成</t>
+    <t>残り日数(土日祝除く)</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニッスウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ドニチシュク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ノゾ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消費コスト/日数</t>
     <rPh sb="0" eb="2">
-      <t>カンセイ</t>
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニッスウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -987,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5C914B-F6BA-41F6-BE3D-3176FC82B172}">
   <dimension ref="A1:I137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -997,6 +1006,7 @@
     <col min="3" max="3" width="11" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="19.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.625" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1052,7 +1062,7 @@
       </c>
       <c r="G4">
         <f>SUM(B:B)</f>
-        <v>147.5</v>
+        <v>140.40000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
@@ -1070,7 +1080,8 @@
         <v>99</v>
       </c>
       <c r="G5">
-        <v>16.5</v>
+        <f>SUMIF(D3:D137,"完了",B3:B137)</f>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
@@ -1089,7 +1100,7 @@
       </c>
       <c r="G6">
         <f>G4-G5</f>
-        <v>131</v>
+        <v>116.40000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
@@ -1138,7 +1149,14 @@
       </c>
       <c r="G9">
         <f ca="1">_xlfn.DAYS(TODAY(),G2)</f>
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>126</v>
+      </c>
+      <c r="I9">
+        <f ca="1">G5/G9</f>
+        <v>1.7142857142857142</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
@@ -1180,10 +1198,10 @@
         <v>105</v>
       </c>
       <c r="H14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I14" t="s">
         <v>119</v>
-      </c>
-      <c r="I14" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
@@ -1194,12 +1212,12 @@
         <v>45646</v>
       </c>
       <c r="H15">
-        <f ca="1">_xlfn.DAYS(G15,TODAY())</f>
-        <v>58</v>
+        <f ca="1">NETWORKDAYS(TODAY(),G15)</f>
+        <v>40</v>
       </c>
       <c r="I15">
         <f ca="1">$G$6/H15</f>
-        <v>2.2586206896551726</v>
+        <v>2.910000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
@@ -1213,12 +1231,12 @@
         <v>45674</v>
       </c>
       <c r="H16">
-        <f ca="1">_xlfn.DAYS(G16,TODAY())</f>
-        <v>86</v>
+        <f t="shared" ref="H16:H17" ca="1" si="0">NETWORKDAYS(TODAY(),G16)</f>
+        <v>60</v>
       </c>
       <c r="I16">
-        <f t="shared" ref="I16:I17" ca="1" si="0">$G$6/H16</f>
-        <v>1.5232558139534884</v>
+        <f t="shared" ref="I16:I17" ca="1" si="1">$G$6/H16</f>
+        <v>1.9400000000000006</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
@@ -1241,12 +1259,12 @@
         <v>45691</v>
       </c>
       <c r="H17">
-        <f t="shared" ref="H17" ca="1" si="1">_xlfn.DAYS(G17,TODAY())</f>
-        <v>103</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
       </c>
       <c r="I17">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.2718446601941749</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.6394366197183103</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
@@ -1276,7 +1294,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20">
         <v>0.5</v>
@@ -1290,7 +1308,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
@@ -1453,7 +1471,7 @@
         <v>0.5</v>
       </c>
       <c r="D38" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
@@ -1745,7 +1763,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B71">
         <v>2</v>
@@ -1875,7 +1893,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B89">
         <v>4</v>
@@ -2025,7 +2043,7 @@
         <v>72</v>
       </c>
       <c r="B107">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D107" t="s">
         <v>104</v>
@@ -2041,7 +2059,7 @@
         <v>73</v>
       </c>
       <c r="B109">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="D109" t="s">
         <v>104</v>
@@ -2052,7 +2070,7 @@
         <v>40</v>
       </c>
       <c r="B110">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="D110" t="s">
         <v>104</v>
@@ -2063,7 +2081,7 @@
         <v>35</v>
       </c>
       <c r="B111">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="D111" t="s">
         <v>104</v>
@@ -2074,7 +2092,7 @@
         <v>74</v>
       </c>
       <c r="B112">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="D112" t="s">
         <v>104</v>
@@ -2085,7 +2103,7 @@
         <v>75</v>
       </c>
       <c r="B113">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="D113" t="s">
         <v>104</v>
@@ -2096,7 +2114,7 @@
         <v>76</v>
       </c>
       <c r="B114">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="D114" t="s">
         <v>104</v>
@@ -2107,7 +2125,7 @@
         <v>77</v>
       </c>
       <c r="B115">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="D115" t="s">
         <v>104</v>
@@ -2118,7 +2136,7 @@
         <v>78</v>
       </c>
       <c r="B116">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="D116" t="s">
         <v>104</v>
@@ -2129,7 +2147,7 @@
         <v>79</v>
       </c>
       <c r="B117">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="D117" t="s">
         <v>104</v>
@@ -2140,7 +2158,7 @@
         <v>80</v>
       </c>
       <c r="B118">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="D118" t="s">
         <v>104</v>
@@ -2151,7 +2169,7 @@
         <v>81</v>
       </c>
       <c r="B119">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="D119" t="s">
         <v>104</v>
@@ -2162,7 +2180,7 @@
         <v>82</v>
       </c>
       <c r="B120">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="D120" t="s">
         <v>104</v>
@@ -2173,7 +2191,7 @@
         <v>83</v>
       </c>
       <c r="B121">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D121" t="s">
         <v>104</v>
@@ -2279,7 +2297,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B134">
         <v>4</v>
@@ -2318,26 +2336,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -2572,7 +2570,54 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2DB8550-DCF7-4849-8EB8-ECAF0AC6EF2A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
+    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{336D5495-947F-4A21-BF46-4F79737A7D0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EE57519-32A4-4E07-899C-1730DAEB61F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2589,31 +2634,4 @@
     <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{336D5495-947F-4A21-BF46-4F79737A7D0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2DB8550-DCF7-4849-8EB8-ECAF0AC6EF2A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
-    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/DecorateArma/中山進捗コスト表.xlsx
+++ b/DecorateArma/中山進捗コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347024\Desktop\GitHub\MyGame\DecorateArma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AD97E3-FA1C-4CA1-ABEA-45D917D6903E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D7C2E8-F823-47ED-9895-59462D02DF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="570" windowWidth="22680" windowHeight="12945" xr2:uid="{06163087-D774-44E3-AC22-B7F35EE22022}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="23475" windowHeight="11295" xr2:uid="{06163087-D774-44E3-AC22-B7F35EE22022}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -996,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5C914B-F6BA-41F6-BE3D-3176FC82B172}">
   <dimension ref="A1:I137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1149,14 +1149,14 @@
       </c>
       <c r="G9">
         <f ca="1">_xlfn.DAYS(TODAY(),G2)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
         <v>126</v>
       </c>
       <c r="I9">
         <f ca="1">G5/G9</f>
-        <v>1.7142857142857142</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
@@ -1213,11 +1213,11 @@
       </c>
       <c r="H15">
         <f ca="1">NETWORKDAYS(TODAY(),G15)</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I15">
         <f ca="1">$G$6/H15</f>
-        <v>2.910000000000001</v>
+        <v>2.9846153846153856</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
@@ -1232,11 +1232,11 @@
       </c>
       <c r="H16">
         <f t="shared" ref="H16:H17" ca="1" si="0">NETWORKDAYS(TODAY(),G16)</f>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I16">
         <f t="shared" ref="I16:I17" ca="1" si="1">$G$6/H16</f>
-        <v>1.9400000000000006</v>
+        <v>1.972881355932204</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
@@ -1260,11 +1260,11 @@
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6394366197183103</v>
+        <v>1.6628571428571433</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
@@ -2336,6 +2336,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -2570,27 +2590,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EE57519-32A4-4E07-899C-1730DAEB61F8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="db6a9e92-7dff-44c4-88fb-dfdb35aacb58"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="039abfb5-1edc-46dd-b6ee-7f92783bfc48"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
+    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{336D5495-947F-4A21-BF46-4F79737A7D0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2DB8550-DCF7-4849-8EB8-ECAF0AC6EF2A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2607,31 +2634,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{336D5495-947F-4A21-BF46-4F79737A7D0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EE57519-32A4-4E07-899C-1730DAEB61F8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="db6a9e92-7dff-44c4-88fb-dfdb35aacb58"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="039abfb5-1edc-46dd-b6ee-7f92783bfc48"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
-    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/DecorateArma/中山進捗コスト表.xlsx
+++ b/DecorateArma/中山進捗コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347024\Desktop\GitHub\MyGame\DecorateArma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D7C2E8-F823-47ED-9895-59462D02DF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393E7FB6-CAC5-47BF-801A-FB36B8B1CD9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="23475" windowHeight="11295" xr2:uid="{06163087-D774-44E3-AC22-B7F35EE22022}"/>
+    <workbookView xWindow="2325" yWindow="2235" windowWidth="23475" windowHeight="11295" xr2:uid="{06163087-D774-44E3-AC22-B7F35EE22022}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -997,7 +997,7 @@
   <dimension ref="A1:I137"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="G5">
         <f>SUMIF(D3:D137,"完了",B3:B137)</f>
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="G6">
         <f>G4-G5</f>
-        <v>116.40000000000003</v>
+        <v>113.40000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="G8">
         <f>SUM(C:C)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -1149,14 +1149,14 @@
       </c>
       <c r="G9">
         <f ca="1">_xlfn.DAYS(TODAY(),G2)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
         <v>126</v>
       </c>
       <c r="I9">
         <f ca="1">G5/G9</f>
-        <v>1.6</v>
+        <v>1.6875</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
@@ -1213,11 +1213,11 @@
       </c>
       <c r="H15">
         <f ca="1">NETWORKDAYS(TODAY(),G15)</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I15">
         <f ca="1">$G$6/H15</f>
-        <v>2.9846153846153856</v>
+        <v>2.9842105263157905</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
@@ -1232,11 +1232,11 @@
       </c>
       <c r="H16">
         <f t="shared" ref="H16:H17" ca="1" si="0">NETWORKDAYS(TODAY(),G16)</f>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I16">
         <f t="shared" ref="I16:I17" ca="1" si="1">$G$6/H16</f>
-        <v>1.972881355932204</v>
+        <v>1.9551724137931041</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
@@ -1260,11 +1260,11 @@
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6628571428571433</v>
+        <v>1.6434782608695657</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
@@ -1360,8 +1360,11 @@
       <c r="B26">
         <v>1</v>
       </c>
+      <c r="C26" s="6">
+        <v>0.5</v>
+      </c>
       <c r="D26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
@@ -1492,8 +1495,11 @@
       <c r="B40">
         <v>2</v>
       </c>
+      <c r="C40" s="6">
+        <v>0.5</v>
+      </c>
       <c r="D40" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
@@ -2336,26 +2342,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -2590,7 +2576,54 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2DB8550-DCF7-4849-8EB8-ECAF0AC6EF2A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
+    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{336D5495-947F-4A21-BF46-4F79737A7D0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EE57519-32A4-4E07-899C-1730DAEB61F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2607,31 +2640,4 @@
     <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{336D5495-947F-4A21-BF46-4F79737A7D0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2DB8550-DCF7-4849-8EB8-ECAF0AC6EF2A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
-    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/DecorateArma/中山進捗コスト表.xlsx
+++ b/DecorateArma/中山進捗コスト表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347024\Desktop\GitHub\MyGame\DecorateArma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393E7FB6-CAC5-47BF-801A-FB36B8B1CD9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76171EA5-F9B7-4D9A-9FDB-1ACE8FDFCB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2325" yWindow="2235" windowWidth="23475" windowHeight="11295" xr2:uid="{06163087-D774-44E3-AC22-B7F35EE22022}"/>
   </bookViews>
@@ -996,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5C914B-F6BA-41F6-BE3D-3176FC82B172}">
   <dimension ref="A1:I137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="G5">
         <f>SUMIF(D3:D137,"完了",B3:B137)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="G6">
         <f>G4-G5</f>
-        <v>113.40000000000003</v>
+        <v>112.40000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="G8">
         <f>SUM(C:C)</f>
-        <v>19</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -1149,14 +1149,14 @@
       </c>
       <c r="G9">
         <f ca="1">_xlfn.DAYS(TODAY(),G2)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
         <v>126</v>
       </c>
       <c r="I9">
         <f ca="1">G5/G9</f>
-        <v>1.6875</v>
+        <v>1.6470588235294117</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
@@ -1213,11 +1213,11 @@
       </c>
       <c r="H15">
         <f ca="1">NETWORKDAYS(TODAY(),G15)</f>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I15">
         <f ca="1">$G$6/H15</f>
-        <v>2.9842105263157905</v>
+        <v>3.0378378378378388</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
@@ -1232,11 +1232,11 @@
       </c>
       <c r="H16">
         <f t="shared" ref="H16:H17" ca="1" si="0">NETWORKDAYS(TODAY(),G16)</f>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I16">
         <f t="shared" ref="I16:I17" ca="1" si="1">$G$6/H16</f>
-        <v>1.9551724137931041</v>
+        <v>1.9719298245614041</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
@@ -1260,11 +1260,11 @@
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6434782608695657</v>
+        <v>1.6529411764705888</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
@@ -1274,8 +1274,11 @@
       <c r="B18">
         <v>1</v>
       </c>
+      <c r="C18" s="6">
+        <v>0.5</v>
+      </c>
       <c r="D18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
@@ -1286,7 +1289,7 @@
         <v>0.5</v>
       </c>
       <c r="C19" s="6">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="D19" t="s">
         <v>105</v>
@@ -2342,6 +2345,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -2576,27 +2599,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EE57519-32A4-4E07-899C-1730DAEB61F8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="db6a9e92-7dff-44c4-88fb-dfdb35aacb58"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="039abfb5-1edc-46dd-b6ee-7f92783bfc48"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
+    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{336D5495-947F-4A21-BF46-4F79737A7D0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2DB8550-DCF7-4849-8EB8-ECAF0AC6EF2A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2613,31 +2643,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{336D5495-947F-4A21-BF46-4F79737A7D0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EE57519-32A4-4E07-899C-1730DAEB61F8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="db6a9e92-7dff-44c4-88fb-dfdb35aacb58"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="039abfb5-1edc-46dd-b6ee-7f92783bfc48"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
-    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/DecorateArma/中山進捗コスト表.xlsx
+++ b/DecorateArma/中山進捗コスト表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347024\Desktop\GitHub\MyGame\DecorateArma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76171EA5-F9B7-4D9A-9FDB-1ACE8FDFCB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B56CC7B-56BA-4ECD-9D72-694534651838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2325" yWindow="2235" windowWidth="23475" windowHeight="11295" xr2:uid="{06163087-D774-44E3-AC22-B7F35EE22022}"/>
   </bookViews>
@@ -996,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5C914B-F6BA-41F6-BE3D-3176FC82B172}">
   <dimension ref="A1:I137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="G8">
         <f>SUM(C:C)</f>
-        <v>19.2</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -1364,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D26" t="s">
         <v>105</v>
@@ -1499,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="C40" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D40" t="s">
         <v>105</v>
@@ -2345,26 +2345,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -2599,7 +2579,54 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2DB8550-DCF7-4849-8EB8-ECAF0AC6EF2A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
+    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{336D5495-947F-4A21-BF46-4F79737A7D0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EE57519-32A4-4E07-899C-1730DAEB61F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2616,31 +2643,4 @@
     <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{336D5495-947F-4A21-BF46-4F79737A7D0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2DB8550-DCF7-4849-8EB8-ECAF0AC6EF2A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
-    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/DecorateArma/中山進捗コスト表.xlsx
+++ b/DecorateArma/中山進捗コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347024\Desktop\GitHub\MyGame\DecorateArma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B56CC7B-56BA-4ECD-9D72-694534651838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBAE576-E0F7-4FF0-9CCF-740DADEC4417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="2235" windowWidth="23475" windowHeight="11295" xr2:uid="{06163087-D774-44E3-AC22-B7F35EE22022}"/>
+    <workbookView xWindow="2955" yWindow="2565" windowWidth="23475" windowHeight="11295" xr2:uid="{06163087-D774-44E3-AC22-B7F35EE22022}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -580,7 +580,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -604,8 +604,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -636,6 +644,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -651,7 +665,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -680,6 +694,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -996,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5C914B-F6BA-41F6-BE3D-3176FC82B172}">
   <dimension ref="A1:I137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1053,7 +1076,7 @@
       <c r="C4" s="6">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="s">
         <v>105</v>
       </c>
       <c r="E4" s="5"/>
@@ -1081,7 +1104,7 @@
       </c>
       <c r="G5">
         <f>SUMIF(D3:D137,"完了",B3:B137)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
@@ -1100,7 +1123,7 @@
       </c>
       <c r="G6">
         <f>G4-G5</f>
-        <v>112.40000000000003</v>
+        <v>111.40000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
@@ -1131,7 +1154,7 @@
       </c>
       <c r="G8">
         <f>SUM(C:C)</f>
-        <v>20.2</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -1156,7 +1179,7 @@
       </c>
       <c r="I9">
         <f ca="1">G5/G9</f>
-        <v>1.6470588235294117</v>
+        <v>1.7058823529411764</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
@@ -1180,7 +1203,7 @@
       <c r="C12" s="6">
         <v>2</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="6" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1194,7 +1217,7 @@
       <c r="C14" s="6">
         <v>2</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="6" t="s">
         <v>105</v>
       </c>
       <c r="H14" t="s">
@@ -1217,7 +1240,7 @@
       </c>
       <c r="I15">
         <f ca="1">$G$6/H15</f>
-        <v>3.0378378378378388</v>
+        <v>3.0108108108108116</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
@@ -1236,7 +1259,7 @@
       </c>
       <c r="I16">
         <f t="shared" ref="I16:I17" ca="1" si="1">$G$6/H16</f>
-        <v>1.9719298245614041</v>
+        <v>1.9543859649122812</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
@@ -1249,7 +1272,7 @@
       <c r="C17" s="6">
         <v>1</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="6" t="s">
         <v>105</v>
       </c>
       <c r="F17" t="s">
@@ -1264,7 +1287,7 @@
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6529411764705888</v>
+        <v>1.6382352941176475</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
@@ -1277,7 +1300,7 @@
       <c r="C18" s="6">
         <v>0.5</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1291,7 +1314,7 @@
       <c r="C19" s="6">
         <v>0.2</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1305,7 +1328,7 @@
       <c r="C20" s="6">
         <v>0.5</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1324,7 +1347,7 @@
       <c r="C23" s="6">
         <v>0.5</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="6" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1338,7 +1361,7 @@
       <c r="C24" s="6">
         <v>0.5</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1352,7 +1375,7 @@
       <c r="C25" s="6">
         <v>0.5</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1366,7 +1389,7 @@
       <c r="C26" s="6">
         <v>1</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1385,7 +1408,7 @@
       <c r="C29" s="6">
         <v>1</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="6" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1399,7 +1422,7 @@
       <c r="C30" s="6">
         <v>1</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1413,7 +1436,7 @@
       <c r="C31" s="6">
         <v>1</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1476,7 +1499,7 @@
       <c r="C38" s="6">
         <v>0.5</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="6" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1487,8 +1510,11 @@
       <c r="B39">
         <v>1</v>
       </c>
-      <c r="D39" t="s">
-        <v>104</v>
+      <c r="C39" s="6">
+        <v>1</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
@@ -1501,7 +1527,7 @@
       <c r="C40" s="6">
         <v>1</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="6" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1586,14 +1612,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
+    <row r="52" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B52">
-        <v>2</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="B52" s="10">
+        <v>2</v>
+      </c>
+      <c r="C52" s="11"/>
+      <c r="D52" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1646,14 +1673,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
+    <row r="58" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B58">
-        <v>2</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="B58" s="10">
+        <v>2</v>
+      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1672,7 +1700,7 @@
       <c r="C61" s="6">
         <v>1</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="6" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1686,7 +1714,7 @@
       <c r="C62" s="6">
         <v>1</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1700,7 +1728,7 @@
       <c r="C63" s="6">
         <v>1</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1714,7 +1742,7 @@
       <c r="C64" s="6">
         <v>1</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1728,7 +1756,7 @@
       <c r="C65" s="6">
         <v>2</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="12" t="s">
         <v>105</v>
       </c>
     </row>

--- a/DecorateArma/中山進捗コスト表.xlsx
+++ b/DecorateArma/中山進捗コスト表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347024\Desktop\GitHub\MyGame\DecorateArma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBAE576-E0F7-4FF0-9CCF-740DADEC4417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB73307E-C90A-4A4A-B4A7-590BB983CEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2955" yWindow="2565" windowWidth="23475" windowHeight="11295" xr2:uid="{06163087-D774-44E3-AC22-B7F35EE22022}"/>
   </bookViews>
@@ -1020,7 +1020,7 @@
   <dimension ref="A1:I137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="G5">
         <f>SUMIF(D3:D137,"完了",B3:B137)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="G6">
         <f>G4-G5</f>
-        <v>111.40000000000003</v>
+        <v>109.40000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="G8">
         <f>SUM(C:C)</f>
-        <v>21.2</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="I9">
         <f ca="1">G5/G9</f>
-        <v>1.7058823529411764</v>
+        <v>1.8235294117647058</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="I15">
         <f ca="1">$G$6/H15</f>
-        <v>3.0108108108108116</v>
+        <v>2.9567567567567576</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="I16">
         <f t="shared" ref="I16:I17" ca="1" si="1">$G$6/H16</f>
-        <v>1.9543859649122812</v>
+        <v>1.9192982456140357</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6382352941176475</v>
+        <v>1.6088235294117652</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
@@ -1469,8 +1469,11 @@
       <c r="B34">
         <v>2</v>
       </c>
-      <c r="D34" t="s">
-        <v>104</v>
+      <c r="C34" s="6">
+        <v>1</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
@@ -2373,6 +2376,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -2607,27 +2630,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EE57519-32A4-4E07-899C-1730DAEB61F8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="db6a9e92-7dff-44c4-88fb-dfdb35aacb58"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="039abfb5-1edc-46dd-b6ee-7f92783bfc48"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
+    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{336D5495-947F-4A21-BF46-4F79737A7D0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2DB8550-DCF7-4849-8EB8-ECAF0AC6EF2A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2644,31 +2674,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{336D5495-947F-4A21-BF46-4F79737A7D0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EE57519-32A4-4E07-899C-1730DAEB61F8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="db6a9e92-7dff-44c4-88fb-dfdb35aacb58"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="039abfb5-1edc-46dd-b6ee-7f92783bfc48"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
-    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/DecorateArma/中山進捗コスト表.xlsx
+++ b/DecorateArma/中山進捗コスト表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347024\Desktop\GitHub\MyGame\DecorateArma\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\中山　七草\Documents\GitHub\MyGame\DecorateArma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB73307E-C90A-4A4A-B4A7-590BB983CEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2449F34D-765C-45E2-84BC-0DFBB9E31080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2955" yWindow="2565" windowWidth="23475" windowHeight="11295" xr2:uid="{06163087-D774-44E3-AC22-B7F35EE22022}"/>
+    <workbookView xWindow="11370" yWindow="1155" windowWidth="24465" windowHeight="13140" xr2:uid="{06163087-D774-44E3-AC22-B7F35EE22022}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1019,7 +1019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5C914B-F6BA-41F6-BE3D-3176FC82B172}">
   <dimension ref="A1:I137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="G5">
         <f>SUMIF(D3:D137,"完了",B3:B137)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="G6">
         <f>G4-G5</f>
-        <v>109.40000000000003</v>
+        <v>107.40000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="G8">
         <f>SUM(C:C)</f>
-        <v>22.2</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="I9">
         <f ca="1">G5/G9</f>
-        <v>1.8235294117647058</v>
+        <v>1.9411764705882353</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="I15">
         <f ca="1">$G$6/H15</f>
-        <v>2.9567567567567576</v>
+        <v>2.9027027027027037</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="I16">
         <f t="shared" ref="I16:I17" ca="1" si="1">$G$6/H16</f>
-        <v>1.9192982456140357</v>
+        <v>1.88421052631579</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6088235294117652</v>
+        <v>1.579411764705883</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
@@ -1458,8 +1458,11 @@
       <c r="B33">
         <v>2</v>
       </c>
-      <c r="D33" t="s">
-        <v>104</v>
+      <c r="C33" s="6">
+        <v>1</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
@@ -2376,26 +2379,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -2630,7 +2613,54 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2DB8550-DCF7-4849-8EB8-ECAF0AC6EF2A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
+    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{336D5495-947F-4A21-BF46-4F79737A7D0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EE57519-32A4-4E07-899C-1730DAEB61F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2647,31 +2677,4 @@
     <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{336D5495-947F-4A21-BF46-4F79737A7D0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2DB8550-DCF7-4849-8EB8-ECAF0AC6EF2A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
-    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/DecorateArma/中山進捗コスト表.xlsx
+++ b/DecorateArma/中山進捗コスト表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\中山　七草\Documents\GitHub\MyGame\DecorateArma\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347024\Desktop\GitHub\MyGame\DecorateArma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2449F34D-765C-45E2-84BC-0DFBB9E31080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361E3669-CD7F-4F6A-B184-FF7EA9473395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11370" yWindow="1155" windowWidth="24465" windowHeight="13140" xr2:uid="{06163087-D774-44E3-AC22-B7F35EE22022}"/>
+    <workbookView xWindow="3900" yWindow="1095" windowWidth="21600" windowHeight="11295" xr2:uid="{06163087-D774-44E3-AC22-B7F35EE22022}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="128">
   <si>
     <t>1コスト：3時間(一日基本2コスト)</t>
     <rPh sb="6" eb="8">
@@ -572,6 +572,13 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>ニッスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <rPh sb="0" eb="2">
+      <t>カンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1019,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5C914B-F6BA-41F6-BE3D-3176FC82B172}">
   <dimension ref="A1:I137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1154,7 +1161,7 @@
       </c>
       <c r="G8">
         <f>SUM(C:C)</f>
-        <v>23.2</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -1172,14 +1179,14 @@
       </c>
       <c r="G9">
         <f ca="1">_xlfn.DAYS(TODAY(),G2)</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H9" t="s">
         <v>126</v>
       </c>
       <c r="I9">
         <f ca="1">G5/G9</f>
-        <v>1.9411764705882353</v>
+        <v>1.4347826086956521</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
@@ -1236,11 +1243,11 @@
       </c>
       <c r="H15">
         <f ca="1">NETWORKDAYS(TODAY(),G15)</f>
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I15">
         <f ca="1">$G$6/H15</f>
-        <v>2.9027027027027037</v>
+        <v>3.2545454545454557</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
@@ -1255,11 +1262,11 @@
       </c>
       <c r="H16">
         <f t="shared" ref="H16:H17" ca="1" si="0">NETWORKDAYS(TODAY(),G16)</f>
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I16">
         <f t="shared" ref="I16:I17" ca="1" si="1">$G$6/H16</f>
-        <v>1.88421052631579</v>
+        <v>2.0264150943396233</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
@@ -1283,11 +1290,11 @@
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.579411764705883</v>
+        <v>1.6781250000000005</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
@@ -1592,8 +1599,11 @@
       <c r="B49">
         <v>2</v>
       </c>
-      <c r="D49" t="s">
-        <v>104</v>
+      <c r="C49" s="6">
+        <v>2</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
@@ -2379,6 +2389,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -2613,27 +2643,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EE57519-32A4-4E07-899C-1730DAEB61F8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="db6a9e92-7dff-44c4-88fb-dfdb35aacb58"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="039abfb5-1edc-46dd-b6ee-7f92783bfc48"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
+    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{336D5495-947F-4A21-BF46-4F79737A7D0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2DB8550-DCF7-4849-8EB8-ECAF0AC6EF2A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2650,31 +2687,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{336D5495-947F-4A21-BF46-4F79737A7D0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EE57519-32A4-4E07-899C-1730DAEB61F8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="db6a9e92-7dff-44c4-88fb-dfdb35aacb58"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="039abfb5-1edc-46dd-b6ee-7f92783bfc48"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
-    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/DecorateArma/中山進捗コスト表.xlsx
+++ b/DecorateArma/中山進捗コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347024\Desktop\GitHub\MyGame\DecorateArma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361E3669-CD7F-4F6A-B184-FF7EA9473395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F9B8DC-2D9D-4814-A527-F5A361D3F190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="1095" windowWidth="21600" windowHeight="11295" xr2:uid="{06163087-D774-44E3-AC22-B7F35EE22022}"/>
+    <workbookView xWindow="4410" yWindow="-13140" windowWidth="21600" windowHeight="11295" xr2:uid="{06163087-D774-44E3-AC22-B7F35EE22022}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1026,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5C914B-F6BA-41F6-BE3D-3176FC82B172}">
   <dimension ref="A1:I137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="G8">
         <f>SUM(C:C)</f>
-        <v>25.2</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -1179,14 +1179,14 @@
       </c>
       <c r="G9">
         <f ca="1">_xlfn.DAYS(TODAY(),G2)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
         <v>126</v>
       </c>
       <c r="I9">
         <f ca="1">G5/G9</f>
-        <v>1.4347826086956521</v>
+        <v>1.375</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
@@ -1243,11 +1243,11 @@
       </c>
       <c r="H15">
         <f ca="1">NETWORKDAYS(TODAY(),G15)</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I15">
         <f ca="1">$G$6/H15</f>
-        <v>3.2545454545454557</v>
+        <v>3.3562500000000011</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
@@ -1262,11 +1262,11 @@
       </c>
       <c r="H16">
         <f t="shared" ref="H16:H17" ca="1" si="0">NETWORKDAYS(TODAY(),G16)</f>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I16">
         <f t="shared" ref="I16:I17" ca="1" si="1">$G$6/H16</f>
-        <v>2.0264150943396233</v>
+        <v>2.065384615384616</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
@@ -1290,11 +1290,11 @@
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6781250000000005</v>
+        <v>1.7047619047619054</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
@@ -1613,8 +1613,11 @@
       <c r="B50">
         <v>2</v>
       </c>
-      <c r="D50" t="s">
-        <v>104</v>
+      <c r="C50" s="6">
+        <v>2</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
@@ -2389,26 +2392,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -2643,7 +2626,54 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2DB8550-DCF7-4849-8EB8-ECAF0AC6EF2A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
+    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{336D5495-947F-4A21-BF46-4F79737A7D0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EE57519-32A4-4E07-899C-1730DAEB61F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2660,31 +2690,4 @@
     <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{336D5495-947F-4A21-BF46-4F79737A7D0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2DB8550-DCF7-4849-8EB8-ECAF0AC6EF2A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
-    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/DecorateArma/中山進捗コスト表.xlsx
+++ b/DecorateArma/中山進捗コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347024\Desktop\GitHub\MyGame\DecorateArma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F9B8DC-2D9D-4814-A527-F5A361D3F190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61AC12A-701E-4AE9-918D-E44D03A41552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="-13140" windowWidth="21600" windowHeight="11295" xr2:uid="{06163087-D774-44E3-AC22-B7F35EE22022}"/>
+    <workbookView xWindow="4590" yWindow="2280" windowWidth="21600" windowHeight="11400" xr2:uid="{06163087-D774-44E3-AC22-B7F35EE22022}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -540,16 +540,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　ー装備品のステータス設計</t>
-    <rPh sb="2" eb="5">
-      <t>ソウビヒン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>セッケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>残り日数(土日祝除く)</t>
     <rPh sb="0" eb="1">
       <t>ノコ</t>
@@ -579,6 +569,16 @@
     <t>完成</t>
     <rPh sb="0" eb="2">
       <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　ー装備品のステータス設定</t>
+    <rPh sb="2" eb="5">
+      <t>ソウビヒン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1026,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5C914B-F6BA-41F6-BE3D-3176FC82B172}">
   <dimension ref="A1:I137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="G8">
         <f>SUM(C:C)</f>
-        <v>27.2</v>
+        <v>33.200000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -1179,14 +1179,14 @@
       </c>
       <c r="G9">
         <f ca="1">_xlfn.DAYS(TODAY(),G2)</f>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I9">
         <f ca="1">G5/G9</f>
-        <v>1.375</v>
+        <v>1.1379310344827587</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
@@ -1228,7 +1228,7 @@
         <v>105</v>
       </c>
       <c r="H14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I14" t="s">
         <v>119</v>
@@ -1243,11 +1243,11 @@
       </c>
       <c r="H15">
         <f ca="1">NETWORKDAYS(TODAY(),G15)</f>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I15">
         <f ca="1">$G$6/H15</f>
-        <v>3.3562500000000011</v>
+        <v>3.7034482758620699</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
@@ -1262,11 +1262,11 @@
       </c>
       <c r="H16">
         <f t="shared" ref="H16:H17" ca="1" si="0">NETWORKDAYS(TODAY(),G16)</f>
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I16">
         <f t="shared" ref="I16:I17" ca="1" si="1">$G$6/H16</f>
-        <v>2.065384615384616</v>
+        <v>2.1918367346938781</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
@@ -1290,11 +1290,11 @@
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7047619047619054</v>
+        <v>1.7900000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
@@ -1603,7 +1603,7 @@
         <v>2</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
@@ -1617,7 +1617,7 @@
         <v>2</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
@@ -1791,8 +1791,11 @@
       <c r="B68">
         <v>2</v>
       </c>
-      <c r="D68" t="s">
-        <v>104</v>
+      <c r="C68" s="6">
+        <v>2</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
@@ -1802,8 +1805,11 @@
       <c r="B69">
         <v>2</v>
       </c>
-      <c r="D69" t="s">
-        <v>104</v>
+      <c r="C69" s="6">
+        <v>2</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
@@ -1819,7 +1825,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B71">
         <v>2</v>
@@ -1840,8 +1846,11 @@
       <c r="B74">
         <v>2</v>
       </c>
-      <c r="D74" t="s">
-        <v>104</v>
+      <c r="C74" s="6">
+        <v>2</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
@@ -2392,6 +2401,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -2626,27 +2655,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EE57519-32A4-4E07-899C-1730DAEB61F8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="db6a9e92-7dff-44c4-88fb-dfdb35aacb58"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="039abfb5-1edc-46dd-b6ee-7f92783bfc48"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
+    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{336D5495-947F-4A21-BF46-4F79737A7D0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2DB8550-DCF7-4849-8EB8-ECAF0AC6EF2A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2663,31 +2699,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{336D5495-947F-4A21-BF46-4F79737A7D0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EE57519-32A4-4E07-899C-1730DAEB61F8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="db6a9e92-7dff-44c4-88fb-dfdb35aacb58"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="039abfb5-1edc-46dd-b6ee-7f92783bfc48"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
-    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/DecorateArma/中山進捗コスト表.xlsx
+++ b/DecorateArma/中山進捗コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347024\Desktop\GitHub\MyGame\DecorateArma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61AC12A-701E-4AE9-918D-E44D03A41552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50E2995-9521-471D-B424-EA3562947DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4590" yWindow="2280" windowWidth="21600" windowHeight="11400" xr2:uid="{06163087-D774-44E3-AC22-B7F35EE22022}"/>
+    <workbookView xWindow="4185" yWindow="1530" windowWidth="21600" windowHeight="11400" xr2:uid="{06163087-D774-44E3-AC22-B7F35EE22022}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1026,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5C914B-F6BA-41F6-BE3D-3176FC82B172}">
   <dimension ref="A1:I137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="G8">
         <f>SUM(C:C)</f>
-        <v>33.200000000000003</v>
+        <v>34.200000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -1179,14 +1179,14 @@
       </c>
       <c r="G9">
         <f ca="1">_xlfn.DAYS(TODAY(),G2)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H9" t="s">
         <v>125</v>
       </c>
       <c r="I9">
         <f ca="1">G5/G9</f>
-        <v>1.1379310344827587</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
@@ -1243,11 +1243,11 @@
       </c>
       <c r="H15">
         <f ca="1">NETWORKDAYS(TODAY(),G15)</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I15">
         <f ca="1">$G$6/H15</f>
-        <v>3.7034482758620699</v>
+        <v>3.8357142857142867</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
@@ -1262,11 +1262,11 @@
       </c>
       <c r="H16">
         <f t="shared" ref="H16:H17" ca="1" si="0">NETWORKDAYS(TODAY(),G16)</f>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16">
         <f t="shared" ref="I16:I17" ca="1" si="1">$G$6/H16</f>
-        <v>2.1918367346938781</v>
+        <v>2.2375000000000007</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
@@ -1290,11 +1290,11 @@
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7900000000000005</v>
+        <v>1.8203389830508481</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
@@ -1819,8 +1819,11 @@
       <c r="B70">
         <v>1</v>
       </c>
-      <c r="D70" t="s">
-        <v>104</v>
+      <c r="C70" s="6">
+        <v>1</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
@@ -2401,26 +2404,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -2655,7 +2638,54 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2DB8550-DCF7-4849-8EB8-ECAF0AC6EF2A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
+    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{336D5495-947F-4A21-BF46-4F79737A7D0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EE57519-32A4-4E07-899C-1730DAEB61F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2672,31 +2702,4 @@
     <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{336D5495-947F-4A21-BF46-4F79737A7D0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2DB8550-DCF7-4849-8EB8-ECAF0AC6EF2A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
-    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/DecorateArma/中山進捗コスト表.xlsx
+++ b/DecorateArma/中山進捗コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347024\Desktop\GitHub\MyGame\DecorateArma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50E2995-9521-471D-B424-EA3562947DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A293C3-C1C5-4769-A06A-F431B33AF48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4185" yWindow="1530" windowWidth="21600" windowHeight="11400" xr2:uid="{06163087-D774-44E3-AC22-B7F35EE22022}"/>
+    <workbookView xWindow="5685" yWindow="-12465" windowWidth="21600" windowHeight="11400" xr2:uid="{06163087-D774-44E3-AC22-B7F35EE22022}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1027,7 +1027,7 @@
   <dimension ref="A1:I137"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="G8">
         <f>SUM(C:C)</f>
-        <v>34.200000000000003</v>
+        <v>36.200000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -1556,8 +1556,11 @@
       <c r="B43">
         <v>2</v>
       </c>
-      <c r="D43" t="s">
-        <v>104</v>
+      <c r="C43" s="6">
+        <v>2</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
@@ -2404,6 +2407,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -2638,27 +2661,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EE57519-32A4-4E07-899C-1730DAEB61F8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="db6a9e92-7dff-44c4-88fb-dfdb35aacb58"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="039abfb5-1edc-46dd-b6ee-7f92783bfc48"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
+    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{336D5495-947F-4A21-BF46-4F79737A7D0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2DB8550-DCF7-4849-8EB8-ECAF0AC6EF2A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2675,31 +2705,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{336D5495-947F-4A21-BF46-4F79737A7D0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EE57519-32A4-4E07-899C-1730DAEB61F8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="db6a9e92-7dff-44c4-88fb-dfdb35aacb58"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="039abfb5-1edc-46dd-b6ee-7f92783bfc48"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
-    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/DecorateArma/中山進捗コスト表.xlsx
+++ b/DecorateArma/中山進捗コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347024\Desktop\GitHub\MyGame\DecorateArma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A293C3-C1C5-4769-A06A-F431B33AF48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7A51C3-E51A-4DA7-91CC-EECBD3646615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5685" yWindow="-12465" windowWidth="21600" windowHeight="11400" xr2:uid="{06163087-D774-44E3-AC22-B7F35EE22022}"/>
+    <workbookView xWindow="3390" yWindow="1380" windowWidth="22350" windowHeight="11400" xr2:uid="{06163087-D774-44E3-AC22-B7F35EE22022}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -620,7 +620,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -657,6 +657,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -672,7 +678,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -708,6 +714,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1026,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5C914B-F6BA-41F6-BE3D-3176FC82B172}">
   <dimension ref="A1:I137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1161,7 +1173,7 @@
       </c>
       <c r="G8">
         <f>SUM(C:C)</f>
-        <v>36.200000000000003</v>
+        <v>45.2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -1179,14 +1191,14 @@
       </c>
       <c r="G9">
         <f ca="1">_xlfn.DAYS(TODAY(),G2)</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
         <v>125</v>
       </c>
       <c r="I9">
         <f ca="1">G5/G9</f>
-        <v>1.1000000000000001</v>
+        <v>0.94285714285714284</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
@@ -1243,11 +1255,11 @@
       </c>
       <c r="H15">
         <f ca="1">NETWORKDAYS(TODAY(),G15)</f>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I15">
         <f ca="1">$G$6/H15</f>
-        <v>3.8357142857142867</v>
+        <v>4.2960000000000012</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
@@ -1262,11 +1274,11 @@
       </c>
       <c r="H16">
         <f t="shared" ref="H16:H17" ca="1" si="0">NETWORKDAYS(TODAY(),G16)</f>
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I16">
         <f t="shared" ref="I16:I17" ca="1" si="1">$G$6/H16</f>
-        <v>2.2375000000000007</v>
+        <v>2.3866666666666676</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
@@ -1290,11 +1302,11 @@
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8203389830508481</v>
+        <v>1.9178571428571434</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
@@ -1570,8 +1582,11 @@
       <c r="B44">
         <v>4</v>
       </c>
-      <c r="D44" t="s">
-        <v>104</v>
+      <c r="C44" s="6">
+        <v>4</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
@@ -1836,8 +1851,11 @@
       <c r="B71">
         <v>2</v>
       </c>
-      <c r="D71" t="s">
-        <v>104</v>
+      <c r="C71" s="6">
+        <v>1</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
@@ -1871,18 +1889,22 @@
       <c r="B77">
         <v>4</v>
       </c>
-      <c r="D77" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A78" t="s">
+      <c r="C77" s="6">
+        <v>4</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B78">
-        <v>2</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="B78" s="13">
+        <v>2</v>
+      </c>
+      <c r="C78" s="14"/>
+      <c r="D78" s="13" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2407,26 +2429,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -2661,7 +2663,54 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2DB8550-DCF7-4849-8EB8-ECAF0AC6EF2A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
+    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{336D5495-947F-4A21-BF46-4F79737A7D0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EE57519-32A4-4E07-899C-1730DAEB61F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2678,31 +2727,4 @@
     <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{336D5495-947F-4A21-BF46-4F79737A7D0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2DB8550-DCF7-4849-8EB8-ECAF0AC6EF2A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
-    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/DecorateArma/中山進捗コスト表.xlsx
+++ b/DecorateArma/中山進捗コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347024\Desktop\GitHub\MyGame\DecorateArma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7A51C3-E51A-4DA7-91CC-EECBD3646615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABC2E60-C12F-4D1B-8216-9F0813EFAFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3390" yWindow="1380" windowWidth="22350" windowHeight="11400" xr2:uid="{06163087-D774-44E3-AC22-B7F35EE22022}"/>
+    <workbookView xWindow="2910" yWindow="1290" windowWidth="24675" windowHeight="12945" xr2:uid="{06163087-D774-44E3-AC22-B7F35EE22022}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1038,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5C914B-F6BA-41F6-BE3D-3176FC82B172}">
   <dimension ref="A1:I137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="G8">
         <f>SUM(C:C)</f>
-        <v>45.2</v>
+        <v>47.2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -1191,14 +1191,14 @@
       </c>
       <c r="G9">
         <f ca="1">_xlfn.DAYS(TODAY(),G2)</f>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H9" t="s">
         <v>125</v>
       </c>
       <c r="I9">
         <f ca="1">G5/G9</f>
-        <v>0.94285714285714284</v>
+        <v>0.86842105263157898</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
@@ -1255,11 +1255,11 @@
       </c>
       <c r="H15">
         <f ca="1">NETWORKDAYS(TODAY(),G15)</f>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I15">
         <f ca="1">$G$6/H15</f>
-        <v>4.2960000000000012</v>
+        <v>4.8818181818181836</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
@@ -1274,11 +1274,11 @@
       </c>
       <c r="H16">
         <f t="shared" ref="H16:H17" ca="1" si="0">NETWORKDAYS(TODAY(),G16)</f>
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I16">
         <f t="shared" ref="I16:I17" ca="1" si="1">$G$6/H16</f>
-        <v>2.3866666666666676</v>
+        <v>2.5571428571428578</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
@@ -1302,11 +1302,11 @@
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9178571428571434</v>
+        <v>2.0264150943396233</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
@@ -1668,8 +1668,11 @@
       <c r="B53">
         <v>1</v>
       </c>
-      <c r="D53" t="s">
-        <v>104</v>
+      <c r="C53" s="6">
+        <v>2</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
@@ -2429,6 +2432,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -2663,27 +2686,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EE57519-32A4-4E07-899C-1730DAEB61F8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="db6a9e92-7dff-44c4-88fb-dfdb35aacb58"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="039abfb5-1edc-46dd-b6ee-7f92783bfc48"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
+    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{336D5495-947F-4A21-BF46-4F79737A7D0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2DB8550-DCF7-4849-8EB8-ECAF0AC6EF2A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2700,31 +2730,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{336D5495-947F-4A21-BF46-4F79737A7D0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EE57519-32A4-4E07-899C-1730DAEB61F8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="db6a9e92-7dff-44c4-88fb-dfdb35aacb58"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="039abfb5-1edc-46dd-b6ee-7f92783bfc48"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
-    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/DecorateArma/中山進捗コスト表.xlsx
+++ b/DecorateArma/中山進捗コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347024\Desktop\GitHub\MyGame\DecorateArma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABC2E60-C12F-4D1B-8216-9F0813EFAFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB1AC61-0903-49AA-8FC4-45837ECA2893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2910" yWindow="1290" windowWidth="24675" windowHeight="12945" xr2:uid="{06163087-D774-44E3-AC22-B7F35EE22022}"/>
+    <workbookView xWindow="1665" yWindow="2430" windowWidth="21600" windowHeight="11295" xr2:uid="{06163087-D774-44E3-AC22-B7F35EE22022}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1038,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5C914B-F6BA-41F6-BE3D-3176FC82B172}">
   <dimension ref="A1:I137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="G8">
         <f>SUM(C:C)</f>
-        <v>47.2</v>
+        <v>55.2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -1191,14 +1191,14 @@
       </c>
       <c r="G9">
         <f ca="1">_xlfn.DAYS(TODAY(),G2)</f>
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
         <v>125</v>
       </c>
       <c r="I9">
         <f ca="1">G5/G9</f>
-        <v>0.86842105263157898</v>
+        <v>0.6470588235294118</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
@@ -1255,11 +1255,11 @@
       </c>
       <c r="H15">
         <f ca="1">NETWORKDAYS(TODAY(),G15)</f>
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I15">
         <f ca="1">$G$6/H15</f>
-        <v>4.8818181818181836</v>
+        <v>8.2615384615384642</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
@@ -1274,11 +1274,11 @@
       </c>
       <c r="H16">
         <f t="shared" ref="H16:H17" ca="1" si="0">NETWORKDAYS(TODAY(),G16)</f>
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I16">
         <f t="shared" ref="I16:I17" ca="1" si="1">$G$6/H16</f>
-        <v>2.5571428571428578</v>
+        <v>3.2545454545454557</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
@@ -1302,11 +1302,11 @@
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0264150943396233</v>
+        <v>2.4409090909090918</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
@@ -1645,8 +1645,11 @@
       <c r="B51">
         <v>4</v>
       </c>
-      <c r="D51" t="s">
-        <v>104</v>
+      <c r="C51" s="6">
+        <v>8</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
@@ -2432,26 +2435,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -2686,7 +2669,54 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2DB8550-DCF7-4849-8EB8-ECAF0AC6EF2A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
+    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{336D5495-947F-4A21-BF46-4F79737A7D0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EE57519-32A4-4E07-899C-1730DAEB61F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2703,31 +2733,4 @@
     <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{336D5495-947F-4A21-BF46-4F79737A7D0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2DB8550-DCF7-4849-8EB8-ECAF0AC6EF2A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
-    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>